--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H2">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I2">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J2">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>0.2530444985705</v>
+        <v>1.2048829151205</v>
       </c>
       <c r="R2">
-        <v>1.012177994282</v>
+        <v>4.819531660481999</v>
       </c>
       <c r="S2">
-        <v>0.003371724381115751</v>
+        <v>0.01159863556667953</v>
       </c>
       <c r="T2">
-        <v>0.002187749089189818</v>
+        <v>0.008048668628567471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H3">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I3">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J3">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
-        <v>0.02005600666983333</v>
+        <v>0.1179957245005</v>
       </c>
       <c r="R3">
-        <v>0.120336040019</v>
+        <v>0.7079743470029999</v>
       </c>
       <c r="S3">
-        <v>0.000267238873235795</v>
+        <v>0.001135869211632689</v>
       </c>
       <c r="T3">
-        <v>0.0002600975949245239</v>
+        <v>0.001182324615330716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H4">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I4">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J4">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.05410718300433333</v>
+        <v>0.2243124392355</v>
       </c>
       <c r="R4">
-        <v>0.324643098026</v>
+        <v>1.345874635413</v>
       </c>
       <c r="S4">
-        <v>0.0007209582075872514</v>
+        <v>0.002159312081792872</v>
       </c>
       <c r="T4">
-        <v>0.0007016924355502881</v>
+        <v>0.002247624814845587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H5">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I5">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J5">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>0.23775037747825</v>
+        <v>1.263533084814</v>
       </c>
       <c r="R5">
-        <v>0.9510015099129999</v>
+        <v>5.054132339255999</v>
       </c>
       <c r="S5">
-        <v>0.003167935872510381</v>
+        <v>0.01216322315910198</v>
       </c>
       <c r="T5">
-        <v>0.002055520569389745</v>
+        <v>0.008440454232752109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H6">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I6">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J6">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>0.1576571215505</v>
+        <v>0.031447003588</v>
       </c>
       <c r="R6">
-        <v>0.9459427293030002</v>
+        <v>0.188682021528</v>
       </c>
       <c r="S6">
-        <v>0.002100722851480011</v>
+        <v>0.0003027201479114656</v>
       </c>
       <c r="T6">
-        <v>0.002044586383175008</v>
+        <v>0.0003151009630041993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H7">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I7">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J7">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>0.1313915779908333</v>
+        <v>0.2585895285435</v>
       </c>
       <c r="R7">
-        <v>0.7883494679449999</v>
+        <v>1.551537171261</v>
       </c>
       <c r="S7">
-        <v>0.001750744195142172</v>
+        <v>0.002489275651016741</v>
       </c>
       <c r="T7">
-        <v>0.001703960015138834</v>
+        <v>0.002591083415589768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J8">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N8">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O8">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P8">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q8">
-        <v>11.66179851856133</v>
+        <v>9.438254297510666</v>
       </c>
       <c r="R8">
-        <v>69.970791111368</v>
+        <v>56.629525785064</v>
       </c>
       <c r="S8">
-        <v>0.1553891533497926</v>
+        <v>0.09085602477110816</v>
       </c>
       <c r="T8">
-        <v>0.1512367739553302</v>
+        <v>0.09457190443921967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J9">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P9">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q9">
         <v>0.9243003115728888</v>
@@ -1013,10 +1013,10 @@
         <v>8.318702804156</v>
       </c>
       <c r="S9">
-        <v>0.01231595989483612</v>
+        <v>0.008897646678831125</v>
       </c>
       <c r="T9">
-        <v>0.01798027084746385</v>
+        <v>0.01389232128905458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J10">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N10">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O10">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P10">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q10">
-        <v>2.493581445824889</v>
+        <v>1.757115000164</v>
       </c>
       <c r="R10">
-        <v>22.442233012424</v>
+        <v>15.814035001476</v>
       </c>
       <c r="S10">
-        <v>0.03322605077242256</v>
+        <v>0.01691461990197618</v>
       </c>
       <c r="T10">
-        <v>0.04850725377323034</v>
+        <v>0.0264096049935936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J11">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N11">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O11">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P11">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q11">
-        <v>10.95695427296867</v>
+        <v>9.897680860218667</v>
       </c>
       <c r="R11">
-        <v>65.741725637812</v>
+        <v>59.386085161312</v>
       </c>
       <c r="S11">
-        <v>0.1459973643910146</v>
+        <v>0.09527862982561622</v>
       </c>
       <c r="T11">
-        <v>0.1420959566384517</v>
+        <v>0.09917538762749527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J12">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N12">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O12">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P12">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q12">
-        <v>7.265779722241334</v>
+        <v>0.2463349866062222</v>
       </c>
       <c r="R12">
-        <v>65.39201750017202</v>
+        <v>2.217014879456</v>
       </c>
       <c r="S12">
-        <v>0.09681382830171334</v>
+        <v>0.002371309030207895</v>
       </c>
       <c r="T12">
-        <v>0.1413400879434927</v>
+        <v>0.003702438196569546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>18.204484</v>
       </c>
       <c r="I13">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J13">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N13">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O13">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P13">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q13">
-        <v>6.055306944908889</v>
+        <v>2.025619002841334</v>
       </c>
       <c r="R13">
-        <v>54.49776250418</v>
+        <v>18.230571025572</v>
       </c>
       <c r="S13">
-        <v>0.08068472611191962</v>
+        <v>0.01949933584090015</v>
       </c>
       <c r="T13">
-        <v>0.1177929484289748</v>
+        <v>0.03044524560291361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H14">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I14">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J14">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N14">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O14">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P14">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q14">
-        <v>0.108939211486</v>
+        <v>1.152096925475333</v>
       </c>
       <c r="R14">
-        <v>0.6536352689159999</v>
+        <v>6.912581552851999</v>
       </c>
       <c r="S14">
-        <v>0.001451574713150838</v>
+        <v>0.01109049867699712</v>
       </c>
       <c r="T14">
-        <v>0.001412785075660235</v>
+        <v>0.01154408399120048</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H15">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I15">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J15">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P15">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q15">
-        <v>0.008634392624666665</v>
+        <v>0.1128263250397778</v>
       </c>
       <c r="R15">
-        <v>0.07770953362199999</v>
+        <v>1.015436925358</v>
       </c>
       <c r="S15">
-        <v>0.0001150500891866005</v>
+        <v>0.00108610671629719</v>
       </c>
       <c r="T15">
-        <v>0.0001679635028258975</v>
+        <v>0.001695790359140534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H16">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I16">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J16">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N16">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O16">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P16">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q16">
-        <v>0.02329390239866666</v>
+        <v>0.214485298402</v>
       </c>
       <c r="R16">
-        <v>0.209645121588</v>
+        <v>1.930367685618</v>
       </c>
       <c r="S16">
-        <v>0.0003103826366216497</v>
+        <v>0.00206471249559258</v>
       </c>
       <c r="T16">
-        <v>0.0004531326766618601</v>
+        <v>0.003223734364114574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H17">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I17">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J17">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N17">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O17">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P17">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q17">
-        <v>0.102354877499</v>
+        <v>1.208177627869333</v>
       </c>
       <c r="R17">
-        <v>0.6141292649939999</v>
+        <v>7.249065767216</v>
       </c>
       <c r="S17">
-        <v>0.00136384089730899</v>
+        <v>0.01163035165460065</v>
       </c>
       <c r="T17">
-        <v>0.001327395722615473</v>
+        <v>0.01210601617277865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7407206666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.222162</v>
+      </c>
+      <c r="I18">
+        <v>0.02854134784626565</v>
+      </c>
+      <c r="J18">
+        <v>0.03273792129855944</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G18">
-        <v>0.05668599999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.170058</v>
-      </c>
-      <c r="I18">
-        <v>0.0048989590065004</v>
-      </c>
-      <c r="J18">
-        <v>0.005781979805672736</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N18">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O18">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P18">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q18">
-        <v>0.06787360564599999</v>
+        <v>0.03006930855644445</v>
       </c>
       <c r="R18">
-        <v>0.610862450814</v>
+        <v>0.270623777008</v>
       </c>
       <c r="S18">
-        <v>0.0009043906991998655</v>
+        <v>0.0002894579608619963</v>
       </c>
       <c r="T18">
-        <v>0.001320334741456802</v>
+        <v>0.000451944557602697</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H19">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I19">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J19">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N19">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O19">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P19">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q19">
-        <v>0.05656592015666666</v>
+        <v>0.2472607064606667</v>
       </c>
       <c r="R19">
-        <v>0.50909328141</v>
+        <v>2.225346358146</v>
       </c>
       <c r="S19">
-        <v>0.0007537199710324569</v>
+        <v>0.002380220341916111</v>
       </c>
       <c r="T19">
-        <v>0.00110036808645247</v>
+        <v>0.003716351853722506</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H20">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I20">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J20">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N20">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O20">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P20">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q20">
-        <v>9.935122137993499</v>
+        <v>14.318255231029</v>
       </c>
       <c r="R20">
-        <v>39.740488551974</v>
+        <v>57.273020924116</v>
       </c>
       <c r="S20">
-        <v>0.1323818290114006</v>
+        <v>0.1378326659721948</v>
       </c>
       <c r="T20">
-        <v>0.08589617451149287</v>
+        <v>0.09564654809822731</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H21">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I21">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J21">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.456959</v>
       </c>
       <c r="O21">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P21">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q21">
-        <v>0.7874459906888334</v>
+        <v>1.402205042802333</v>
       </c>
       <c r="R21">
-        <v>4.724675944133001</v>
+        <v>8.413230256814002</v>
       </c>
       <c r="S21">
-        <v>0.01049242667047223</v>
+        <v>0.01349812921830501</v>
       </c>
       <c r="T21">
-        <v>0.01021204328871649</v>
+        <v>0.01405018313048313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H22">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I22">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J22">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N22">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O22">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P22">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q22">
-        <v>2.124375257030334</v>
+        <v>2.665622290899</v>
       </c>
       <c r="R22">
-        <v>12.746251542182</v>
+        <v>15.993733745394</v>
       </c>
       <c r="S22">
-        <v>0.02830651481945815</v>
+        <v>0.02566023729157357</v>
       </c>
       <c r="T22">
-        <v>0.02755009529897353</v>
+        <v>0.0267097037883842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H23">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I23">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J23">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N23">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O23">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P23">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q23">
-        <v>9.334638974347749</v>
+        <v>15.015225939532</v>
       </c>
       <c r="R23">
-        <v>37.338555897391</v>
+        <v>60.06090375812801</v>
       </c>
       <c r="S23">
-        <v>0.1243806128824129</v>
+        <v>0.1445419562668192</v>
       </c>
       <c r="T23">
-        <v>0.08070457184176005</v>
+        <v>0.1003023417908431</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H24">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I24">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J24">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N24">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O24">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P24">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q24">
-        <v>6.189989378853501</v>
+        <v>0.3737012268773334</v>
       </c>
       <c r="R24">
-        <v>37.13993627312101</v>
+        <v>2.242207361264</v>
       </c>
       <c r="S24">
-        <v>0.08247931974586319</v>
+        <v>0.003597382191229536</v>
       </c>
       <c r="T24">
-        <v>0.08027526997534264</v>
+        <v>0.00374450990649655</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H25">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I25">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J25">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N25">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O25">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P25">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q25">
-        <v>5.158742365935834</v>
+        <v>3.072954909803001</v>
       </c>
       <c r="R25">
-        <v>30.952454195615</v>
+        <v>18.437729458818</v>
       </c>
       <c r="S25">
-        <v>0.06873833459878421</v>
+        <v>0.02958136733815254</v>
       </c>
       <c r="T25">
-        <v>0.06690147766221842</v>
+        <v>0.03079120236806608</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H26">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I26">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J26">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N26">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O26">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P26">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q26">
-        <v>0.2783120178183334</v>
+        <v>13.516392013117</v>
       </c>
       <c r="R26">
-        <v>1.66987210691</v>
+        <v>81.09835207870199</v>
       </c>
       <c r="S26">
-        <v>0.00370840473251448</v>
+        <v>0.130113642719254</v>
       </c>
       <c r="T26">
-        <v>0.003609307060214559</v>
+        <v>0.1354351020362607</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H27">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I27">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J27">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.456959</v>
       </c>
       <c r="O27">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P27">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q27">
-        <v>0.02205868026055556</v>
+        <v>1.323677552570333</v>
       </c>
       <c r="R27">
-        <v>0.198528122345</v>
+        <v>11.913097973133</v>
       </c>
       <c r="S27">
-        <v>0.0002939237583504717</v>
+        <v>0.0127421954012205</v>
       </c>
       <c r="T27">
-        <v>0.0004291040916641694</v>
+        <v>0.01989499907462314</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H28">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I28">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J28">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N28">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O28">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P28">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q28">
-        <v>0.05951000462555556</v>
+        <v>2.516339823627</v>
       </c>
       <c r="R28">
-        <v>0.53559004163</v>
+        <v>22.647058412643</v>
       </c>
       <c r="S28">
-        <v>0.0007929488080152587</v>
+        <v>0.02422319066019235</v>
       </c>
       <c r="T28">
-        <v>0.00115763890577996</v>
+        <v>0.03782082605033561</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H29">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I29">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J29">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N29">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O29">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P29">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q29">
-        <v>0.2614907167191667</v>
+        <v>14.174330369836</v>
       </c>
       <c r="R29">
-        <v>1.568944300315</v>
+        <v>85.045982219016</v>
       </c>
       <c r="S29">
-        <v>0.00348426711498652</v>
+        <v>0.1364471935806342</v>
       </c>
       <c r="T29">
-        <v>0.003391158949704839</v>
+        <v>0.1420276859439583</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H30">
+        <v>26.070387</v>
+      </c>
+      <c r="I30">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J30">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G30">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H30">
-        <v>0.434455</v>
-      </c>
-      <c r="I30">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J30">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N30">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O30">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P30">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q30">
-        <v>0.1733998244183334</v>
+        <v>0.3527728900453334</v>
       </c>
       <c r="R30">
-        <v>1.560598419765</v>
+        <v>3.174956010408</v>
       </c>
       <c r="S30">
-        <v>0.002310488546383456</v>
+        <v>0.003395918506347916</v>
       </c>
       <c r="T30">
-        <v>0.00337311993613717</v>
+        <v>0.005302209973551029</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H31">
+        <v>26.070387</v>
+      </c>
+      <c r="I31">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J31">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.333811</v>
+      </c>
+      <c r="N31">
+        <v>1.001433</v>
+      </c>
+      <c r="O31">
+        <v>0.08339551287966027</v>
+      </c>
+      <c r="P31">
+        <v>0.1135182597523697</v>
+      </c>
+      <c r="Q31">
+        <v>2.900860651619</v>
+      </c>
+      <c r="R31">
+        <v>26.107745864571</v>
+      </c>
+      <c r="S31">
+        <v>0.02792472621664187</v>
+      </c>
+      <c r="T31">
+        <v>0.04360021054032655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.419613</v>
+      </c>
+      <c r="I32">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J32">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.555373</v>
+      </c>
+      <c r="N32">
+        <v>3.110746</v>
+      </c>
+      <c r="O32">
+        <v>0.3885765569564089</v>
+      </c>
+      <c r="P32">
+        <v>0.3526211663203079</v>
+      </c>
+      <c r="Q32">
+        <v>0.7360092435496666</v>
+      </c>
+      <c r="R32">
+        <v>4.416055461298</v>
+      </c>
+      <c r="S32">
+        <v>0.007085089250175241</v>
+      </c>
+      <c r="T32">
+        <v>0.007374859126832376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.419613</v>
+      </c>
+      <c r="I33">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J33">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.456959</v>
+      </c>
+      <c r="O33">
+        <v>0.0380537990759009</v>
+      </c>
+      <c r="P33">
+        <v>0.05179896254485632</v>
+      </c>
+      <c r="Q33">
+        <v>0.07207832631855556</v>
+      </c>
+      <c r="R33">
+        <v>0.648704936867</v>
+      </c>
+      <c r="S33">
+        <v>0.0006938518496143857</v>
+      </c>
+      <c r="T33">
+        <v>0.001083344076224223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.419613</v>
+      </c>
+      <c r="I34">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J34">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.289563</v>
+      </c>
+      <c r="N34">
+        <v>0.868689</v>
+      </c>
+      <c r="O34">
+        <v>0.07234109989177429</v>
+      </c>
+      <c r="P34">
+        <v>0.09847095466798705</v>
+      </c>
+      <c r="Q34">
+        <v>0.137022466373</v>
+      </c>
+      <c r="R34">
+        <v>1.233202197357</v>
+      </c>
+      <c r="S34">
+        <v>0.001319027460646735</v>
+      </c>
+      <c r="T34">
+        <v>0.002059460656713499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.419613</v>
+      </c>
+      <c r="I35">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J35">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.631084</v>
+      </c>
+      <c r="N35">
+        <v>3.262168</v>
+      </c>
+      <c r="O35">
+        <v>0.4074913251205256</v>
+      </c>
+      <c r="P35">
+        <v>0.3697857314267338</v>
+      </c>
+      <c r="Q35">
+        <v>0.7718360168306667</v>
+      </c>
+      <c r="R35">
+        <v>4.631016100984</v>
+      </c>
+      <c r="S35">
+        <v>0.00742997063375334</v>
+      </c>
+      <c r="T35">
+        <v>0.007733845658906423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.419613</v>
+      </c>
+      <c r="I36">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J36">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G31">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.434455</v>
-      </c>
-      <c r="I31">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J31">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.9978816666666667</v>
-      </c>
-      <c r="N31">
-        <v>2.993645</v>
-      </c>
-      <c r="O31">
-        <v>0.1538530879789666</v>
-      </c>
-      <c r="P31">
-        <v>0.1903099151907953</v>
-      </c>
-      <c r="Q31">
-        <v>0.1445115598305556</v>
-      </c>
-      <c r="R31">
-        <v>1.300604038475</v>
-      </c>
-      <c r="S31">
-        <v>0.001925563102088148</v>
-      </c>
-      <c r="T31">
-        <v>0.002811160998010724</v>
+      <c r="M36">
+        <v>0.04059466666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.121784</v>
+      </c>
+      <c r="O36">
+        <v>0.01014170607573002</v>
+      </c>
+      <c r="P36">
+        <v>0.01380492528774525</v>
+      </c>
+      <c r="Q36">
+        <v>0.01920957217688889</v>
+      </c>
+      <c r="R36">
+        <v>0.172886149592</v>
+      </c>
+      <c r="S36">
+        <v>0.0001849182391712131</v>
+      </c>
+      <c r="T36">
+        <v>0.00028872169052123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.419613</v>
+      </c>
+      <c r="I37">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J37">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.333811</v>
+      </c>
+      <c r="N37">
+        <v>1.001433</v>
+      </c>
+      <c r="O37">
+        <v>0.08339551287966027</v>
+      </c>
+      <c r="P37">
+        <v>0.1135182597523697</v>
+      </c>
+      <c r="Q37">
+        <v>0.1579608117143333</v>
+      </c>
+      <c r="R37">
+        <v>1.421647305429</v>
+      </c>
+      <c r="S37">
+        <v>0.001520587491032857</v>
+      </c>
+      <c r="T37">
+        <v>0.00237416597175119</v>
       </c>
     </row>
   </sheetData>
